--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322579.1967487818</v>
+        <v>320016.1764128773</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>342.6869338819844</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>62.01295800501451</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>99.97131819495463</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>141.2079356910002</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>97.42019225198197</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>209.7025251006907</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>34.08849133087731</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9998822305867</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>97.4201922519814</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>232.1561639174182</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1348,13 +1348,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>37.34834979772454</v>
+        <v>8.906162259191587</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986297</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>135.5795121770519</v>
       </c>
       <c r="T13" t="n">
-        <v>5.421623586786459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1813,22 +1813,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.40545032729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>81.54417886827336</v>
       </c>
       <c r="V16" t="n">
-        <v>140.3829797864949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>135.5795121770518</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>225.6414338000054</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>34.69211367164722</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>213.6608990998108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>7.069540131683943</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>93.07916359105459</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833816</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>17.48314223074837</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716619</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.983460896267</v>
+        <v>1224.085859695932</v>
       </c>
       <c r="C2" t="n">
-        <v>848.0209439558549</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D2" t="n">
-        <v>848.0209439558549</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2326913576107</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4361,19 +4361,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2290.954335485763</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1959.891448142193</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.122792872078</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X2" t="n">
-        <v>1607.122792872078</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="Y2" t="n">
-        <v>1216.983460896267</v>
+        <v>1610.685699760054</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4407,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.9218676324039</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288652</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288652</v>
+        <v>1650.049226284318</v>
       </c>
       <c r="W4" t="n">
-        <v>732.3487252516918</v>
+        <v>1650.049226284318</v>
       </c>
       <c r="X4" t="n">
-        <v>589.714446775934</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.9218676324039</v>
+        <v>1422.059675386301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.715325395395</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1042.715325395395</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1042.715325395395</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1042.715325395395</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>631.7294206057875</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>216.0246703300763</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656475</v>
+        <v>2350.518595975216</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.715325395395</v>
+        <v>1977.052837714136</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.715325395395</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180659</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495376</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508757</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1715.293511287796</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2047.363946463958</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2294.546680296254</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>937.5665200750353</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="C7" t="n">
-        <v>768.6303371471284</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4720,55 +4720,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1602.013300548359</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1405.38455270822</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1182.406071902955</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>893.2877344067931</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.884232784815</v>
+        <v>893.2877344067931</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.884232784815</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="X7" t="n">
-        <v>1158.359099218565</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="Y7" t="n">
-        <v>937.5665200750353</v>
+        <v>603.8705643698324</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042.715325395395</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="C8" t="n">
-        <v>1042.715325395395</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D8" t="n">
-        <v>1042.715325395395</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>1996.775265382425</v>
       </c>
       <c r="Y8" t="n">
-        <v>1042.715325395395</v>
+        <v>1606.635933406614</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329314</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>638.3033838959707</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>600.5777780396833</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y10" t="n">
-        <v>379.7851988961531</v>
+        <v>51.24678656800312</v>
       </c>
     </row>
     <row r="11">
@@ -5118,25 +5118,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557296</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797186</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026167</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370364</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164477</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127517</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229499</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859694</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232838</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855602</v>
+        <v>1895.093223067808</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1640.408734861921</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,22 +5598,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>230.7656652470141</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685194</v>
+        <v>1051.622995973711</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406126</v>
+        <v>882.686813045804</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>732.5701736334682</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>584.6570800510751</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>437.7671325531647</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>270.5710332680437</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>128.8592021102418</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>928.4651056120496</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.6725264685194</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.721406539404</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>854.7852236114967</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>704.6685841991609</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>556.7554906167678</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>409.8655431188574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6694438337374</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>100.9576126759355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1205.369871369643</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032925</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909568</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E28" t="n">
-        <v>334.7259677085636</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F28" t="n">
-        <v>187.8360202106533</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G28" t="n">
-        <v>187.8360202106533</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614391</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6601,22 +6601,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2246.448509608146</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,37 +7330,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7561,10 +7561,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.9393975111061</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019037</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>154.01690201652</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22.58595788902318</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>177.1769700173038</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>189.0322921234475</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>184.8837286264776</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>45.44677382459273</v>
       </c>
       <c r="T13" t="n">
-        <v>211.9838267405018</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>204.6402955209717</v>
       </c>
       <c r="V16" t="n">
-        <v>111.7546635373331</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>29.94462611521701</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856704</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>60.88156453658561</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>46.57372264691831</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>12.04875628922639</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>74.1962961868816</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>47.21554925516926</v>
+        <v>40.32043864788663</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393068</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>199.9223080965399</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>984879.379364709</v>
+        <v>984879.3793647089</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019029</v>
+        <v>335917.986501903</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389272</v>
@@ -26329,16 +26329,16 @@
         <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605026</v>
@@ -26347,10 +26347,10 @@
         <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605026</v>
@@ -26366,7 +26366,7 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91763.1165491986</v>
+        <v>91763.11654919857</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26433,7 +26433,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26442,19 +26442,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731982</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731996</v>
+        <v>8117.312426731945</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-963534.68606306</v>
+        <v>-963721.0794515986</v>
       </c>
       <c r="C6" t="n">
-        <v>142213.0237372189</v>
+        <v>142213.0237372186</v>
       </c>
       <c r="D6" t="n">
-        <v>142213.0237372188</v>
+        <v>142213.023737219</v>
       </c>
       <c r="E6" t="n">
-        <v>-253509.3140146822</v>
+        <v>-253544.0519401178</v>
       </c>
       <c r="F6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="G6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="H6" t="n">
-        <v>253976.1276098635</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="I6" t="n">
-        <v>253976.1276098635</v>
+        <v>253941.3896844278</v>
       </c>
       <c r="J6" t="n">
-        <v>86370.94979988081</v>
+        <v>86336.21187444543</v>
       </c>
       <c r="K6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844281</v>
       </c>
       <c r="L6" t="n">
-        <v>253976.1276098635</v>
+        <v>253941.3896844278</v>
       </c>
       <c r="M6" t="n">
-        <v>121368.833880937</v>
+        <v>121334.0959555012</v>
       </c>
       <c r="N6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844278</v>
       </c>
       <c r="O6" t="n">
-        <v>253976.1276098634</v>
+        <v>253941.3896844278</v>
       </c>
       <c r="P6" t="n">
-        <v>253976.1276098637</v>
+        <v>253941.3896844278</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26981,22 +26981,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>123.8415825451016</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>184.8473720519914</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>152.1663251288734</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>84.50171969803694</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>203.5983603104234</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>139.5384436167223</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>67.4690810886963</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>74.70977315845042</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>284.5101778202804</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>137.5749367610508</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>188.3613055913126</v>
+        <v>216.8034931298456</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31449,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598242</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>436.6197581489562</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34790,7 +34790,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839443</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>270.4976243473745</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191305</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
